--- a/Supplementary tables/Table S7 Aggregate ranks of ferroptosis genes calculated from RSF-BE with 1000 bootstraps by sex and KRAS status.xlsx
+++ b/Supplementary tables/Table S7 Aggregate ranks of ferroptosis genes calculated from RSF-BE with 1000 bootstraps by sex and KRAS status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxy03\Research\ferr\Draft\ferrdraft022025\Supplementary tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongyan\Desktop\Submission\Supplementary tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD722D-6F44-4CC2-9BD2-A7072A1F266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D2555A-265C-4276-93C7-26BD184C9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1300,10 +1300,10 @@
     <t>Female</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S9. Aggregate ranks of ferroptosis genes calculated from RSF-BE with 1000 bootstraps by sex and KRAS status. </t>
-  </si>
-  <si>
     <t>Genes in bold represent highly predictive prognostic features based on aggregate ranks from both GSE39582 and TCGA-CRC results. Colors represent overlapping highly predictive prognostic genes identified in both 5‐year OS and PFS: blue (males), red (females), green (KRAS MT males), orange (KRAS MT females), purple (KRAS WT males), and yellow (KRAS WT females).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S7. Aggregate ranks of ferroptosis genes calculated from RSF-BE with 1000 bootstraps by sex and KRAS status. </t>
   </si>
 </sst>
 </file>
@@ -1977,6 +1977,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2003,9 +2006,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2052,97 +2052,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6C3FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="7" tint="-0.24994659260841701"/>
@@ -2230,406 +2140,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6C3FD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2951,129 +2461,129 @@
   <dimension ref="A1:X559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="8.7265625" style="2"/>
+    <col min="17" max="17" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:24" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="1:24" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="17"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12" t="s">
+      <c r="R4" s="13"/>
+      <c r="S4" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12" t="s">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12" t="s">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="X4" s="18"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X4" s="19"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>407</v>
       </c>
@@ -3147,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -3221,7 +2731,7 @@
         <v>1.9703341563583301E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3295,7 +2805,7 @@
         <v>7.8813366254333204E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>343</v>
       </c>
@@ -3369,7 +2879,7 @@
         <v>3.55891606992223E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>226</v>
       </c>
@@ -3443,7 +2953,7 @@
         <v>7.6966177982747304E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3517,7 +3027,7 @@
         <v>7.6966177982747304E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -3591,7 +3101,7 @@
         <v>8.3246618106139498E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3665,7 +3175,7 @@
         <v>9.91324372417785E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3739,7 +3249,7 @@
         <v>1.5085370884618501E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -3813,7 +3323,7 @@
         <v>1.9801858271401199E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3887,7 +3397,7 @@
         <v>2.0700823230239699E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>214</v>
       </c>
@@ -3961,7 +3471,7 @@
         <v>2.2769674094415899E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -4035,7 +3545,7 @@
         <v>2.2769674094415899E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>380</v>
       </c>
@@ -4109,7 +3619,7 @@
         <v>2.8372811851560001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -4183,7 +3693,7 @@
         <v>2.9567326933852198E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -4257,7 +3767,7 @@
         <v>2.96658436416701E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -4331,7 +3841,7 @@
         <v>2.96658436416701E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>196</v>
       </c>
@@ -4405,7 +3915,7 @@
         <v>3.9505199834984503E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -4479,7 +3989,7 @@
         <v>4.2867082489270902E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>295</v>
       </c>
@@ -4553,7 +4063,7 @@
         <v>4.9319926851344398E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>223</v>
       </c>
@@ -4627,7 +4137,7 @@
         <v>4.9319926851344398E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>350</v>
       </c>
@@ -4701,7 +4211,7 @@
         <v>5.52801876743284E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -4775,7 +4285,7 @@
         <v>5.8629755740137603E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -4849,7 +4359,7 @@
         <v>5.8629755740137603E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4923,7 +4433,7 @@
         <v>5.9110024690749899E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -4997,7 +4507,7 @@
         <v>5.9110024690749899E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -5071,7 +4581,7 @@
         <v>6.3838826666009901E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -5145,7 +4655,7 @@
         <v>6.5624441995209601E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>194</v>
       </c>
@@ -5219,7 +4729,7 @@
         <v>6.7434686501363805E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -5293,7 +4803,7 @@
         <v>6.8875493353200895E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>255</v>
       </c>
@@ -5367,7 +4877,7 @@
         <v>6.8875493353200895E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -5441,7 +4951,7 @@
         <v>6.9269560184472598E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -5515,7 +5025,7 @@
         <v>7.3013195081553406E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -5589,7 +5099,7 @@
         <v>7.8616332838697303E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -5663,7 +5173,7 @@
         <v>7.8813366254333203E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -5737,7 +5247,7 @@
         <v>8.4835200019703405E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>228</v>
       </c>
@@ -5811,7 +5321,7 @@
         <v>8.6891736295402394E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -5885,7 +5395,7 @@
         <v>8.8332543147239401E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>378</v>
       </c>
@@ -5959,7 +5469,7 @@
         <v>8.8332543147239401E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>239</v>
       </c>
@@ -6033,7 +5543,7 @@
         <v>9.3209120184226196E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -6107,7 +5617,7 @@
         <v>9.7543855328214593E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -6181,7 +5691,7 @@
         <v>9.8024124278826896E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -6255,7 +5765,7 @@
         <v>9.8024124278826896E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -6329,7 +5839,7 @@
         <v>9.9748166665640403E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -6403,7 +5913,7 @@
         <v>0.104230676871356</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -6477,7 +5987,7 @@
         <v>0.10769107623346</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -6551,7 +6061,7 @@
         <v>0.108811703784889</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -6625,7 +6135,7 @@
         <v>0.117333399011139</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -6699,7 +6209,7 @@
         <v>0.118269307735409</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>185</v>
       </c>
@@ -6773,7 +6283,7 @@
         <v>0.12695109261186299</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -6847,7 +6357,7 @@
         <v>0.146112592282447</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>251</v>
       </c>
@@ -6921,7 +6431,7 @@
         <v>0.14630962569808301</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -6995,7 +6505,7 @@
         <v>0.14900652057459901</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -7069,7 +6579,7 @@
         <v>0.15172804462806899</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>233</v>
       </c>
@@ -7143,7 +6653,7 @@
         <v>0.15565639835230799</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>188</v>
       </c>
@@ -7217,7 +6727,7 @@
         <v>0.15565639835230799</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>286</v>
       </c>
@@ -7291,7 +6801,7 @@
         <v>0.157244980265872</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>383</v>
       </c>
@@ -7365,7 +6875,7 @@
         <v>0.157244980265872</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>319</v>
       </c>
@@ -7439,7 +6949,7 @@
         <v>0.16286043261149299</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -7513,7 +7023,7 @@
         <v>0.16517557524521401</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -7587,7 +7097,7 @@
         <v>0.165705102549736</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -7661,7 +7171,7 @@
         <v>0.171468329957084</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -7735,7 +7245,7 @@
         <v>0.17438688742618899</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>381</v>
       </c>
@@ -7809,7 +7319,7 @@
         <v>0.17467012296116599</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -7883,7 +7393,7 @@
         <v>0.17467012296116599</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -7957,7 +7467,7 @@
         <v>0.184140041500163</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>394</v>
       </c>
@@ -8031,7 +7541,7 @@
         <v>0.18630740907215701</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -8105,7 +7615,7 @@
         <v>0.189349112426035</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -8179,7 +7689,7 @@
         <v>0.19241544495686799</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>332</v>
       </c>
@@ -8253,7 +7763,7 @@
         <v>0.193585330862206</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -8327,7 +7837,7 @@
         <v>0.203005991047294</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>412</v>
       </c>
@@ -8401,7 +7911,7 @@
         <v>0.203005991047294</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -8475,7 +7985,7 @@
         <v>0.20492706684974399</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -8549,7 +8059,7 @@
         <v>0.20811654526534901</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -8623,7 +8133,7 @@
         <v>0.20811654526534901</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>289</v>
       </c>
@@ -8697,7 +8207,7 @@
         <v>0.211330652857908</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -8771,7 +8281,7 @@
         <v>0.22112075069731399</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -8845,7 +8355,7 @@
         <v>0.224433374997691</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>267</v>
       </c>
@@ -8919,7 +8429,7 @@
         <v>0.227770628475023</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -8993,7 +8503,7 @@
         <v>0.23112019654083199</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>277</v>
       </c>
@@ -9067,7 +8577,7 @@
         <v>0.23112019654083199</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>234</v>
       </c>
@@ -9141,7 +8651,7 @@
         <v>0.237930163968746</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -9215,7 +8725,7 @@
         <v>0.237930163968746</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -9289,7 +8799,7 @@
         <v>0.24136593415389501</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>245</v>
       </c>
@@ -9363,7 +8873,7 @@
         <v>0.244826333516</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -9437,7 +8947,7 @@
         <v>0.24831136205505899</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>62</v>
       </c>
@@ -9511,7 +9021,7 @@
         <v>0.25182101977107202</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -9585,7 +9095,7 @@
         <v>0.25535530666403999</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -9659,7 +9169,7 @@
         <v>0.25901273944177999</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -9733,7 +9243,7 @@
         <v>0.25901273944177999</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -9807,7 +9317,7 @@
         <v>0.26826099538818698</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>172</v>
       </c>
@@ -9881,7 +9391,7 @@
         <v>0.26826099538818698</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>264</v>
       </c>
@@ -9955,7 +9465,7 @@
         <v>0.273396178783196</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -10029,7 +9539,7 @@
         <v>0.27707824073789</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>149</v>
       </c>
@@ -10103,7 +9613,7 @@
         <v>0.27748462215763903</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>157</v>
       </c>
@@ -10177,7 +9687,7 @@
         <v>0.28668361975013701</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -10251,7 +9761,7 @@
         <v>0.28668361975013701</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>271</v>
       </c>
@@ -10325,7 +9835,7 @@
         <v>0.28827220166370099</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -10399,7 +9909,7 @@
         <v>0.28827220166370099</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>64</v>
       </c>
@@ -10473,7 +9983,7 @@
         <v>0.29205278032621301</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -10547,7 +10057,7 @@
         <v>0.29585798816567999</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>227</v>
       </c>
@@ -10621,7 +10131,7 @@
         <v>0.30500772740426901</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -10695,7 +10205,7 @@
         <v>0.30742138674580799</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -10769,7 +10279,7 @@
         <v>0.31132511129309298</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>280</v>
       </c>
@@ -10843,7 +10353,7 @@
         <v>0.31413283746590398</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>52</v>
       </c>
@@ -10917,7 +10427,7 @@
         <v>0.31920644791852698</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>362</v>
       </c>
@@ -10991,7 +10501,7 @@
         <v>0.32318405999667499</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>171</v>
       </c>
@@ -11065,7 +10575,7 @@
         <v>0.323233318350584</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>324</v>
       </c>
@@ -11139,7 +10649,7 @@
         <v>0.323233318350584</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -11213,7 +10723,7 @@
         <v>0.327186301251778</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>160</v>
       </c>
@@ -11287,7 +10797,7 @@
         <v>0.33121317168383502</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -11361,7 +10871,7 @@
         <v>0.33230917005831001</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -11435,7 +10945,7 @@
         <v>0.33526467129284698</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>42</v>
       </c>
@@ -11509,7 +11019,7 @@
         <v>0.33934080007881301</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>178</v>
       </c>
@@ -11583,7 +11093,7 @@
         <v>0.34136039258908102</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>107</v>
       </c>
@@ -11657,7 +11167,7 @@
         <v>0.34344155804173399</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>150</v>
       </c>
@@ -11731,7 +11241,7 @@
         <v>0.35038698594289702</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -11805,7 +11315,7 @@
         <v>0.35038698594289702</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>247</v>
       </c>
@@ -11879,7 +11389,7 @@
         <v>0.355891606992223</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>256</v>
       </c>
@@ -11953,7 +11463,7 @@
         <v>0.35938895011975902</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>109</v>
       </c>
@@ -12027,7 +11537,7 @@
         <v>0.368563318535303</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>290</v>
       </c>
@@ -12101,7 +11611,7 @@
         <v>0.37283648073690501</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>101</v>
       </c>
@@ -12175,7 +11685,7 @@
         <v>0.37713427211546202</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>158</v>
       </c>
@@ -12249,7 +11759,7 @@
         <v>0.37731899094262</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>82</v>
       </c>
@@ -12323,7 +11833,7 @@
         <v>0.38145669267097299</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -12397,7 +11907,7 @@
         <v>0.38580374240343801</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>57</v>
       </c>
@@ -12471,7 +11981,7 @@
         <v>0.38624706758861799</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>395</v>
       </c>
@@ -12545,7 +12055,7 @@
         <v>0.39017542131285798</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -12619,7 +12129,7 @@
         <v>0.39457172939923302</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>203</v>
       </c>
@@ -12693,7 +12203,7 @@
         <v>0.39515051505766302</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>46</v>
       </c>
@@ -12767,7 +12277,7 @@
         <v>0.41240325351427598</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>305</v>
       </c>
@@ -12841,7 +12351,7 @@
         <v>0.41288352246488902</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>252</v>
       </c>
@@ -12915,7 +12425,7 @@
         <v>0.41692270748542298</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>266</v>
       </c>
@@ -12989,7 +12499,7 @@
         <v>0.42171308240306898</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>313</v>
       </c>
@@ -13063,7 +12573,7 @@
         <v>0.430518013164294</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>320</v>
       </c>
@@ -13137,7 +12647,7 @@
         <v>0.430518013164294</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>182</v>
       </c>
@@ -13211,7 +12721,7 @@
         <v>0.43524681513955499</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -13285,7 +12795,7 @@
         <v>0.43524681513955499</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -13359,7 +12869,7 @@
         <v>0.43929831474856701</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>69</v>
       </c>
@@ -13433,7 +12943,7 @@
         <v>0.43929831474856701</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>111</v>
       </c>
@@ -13507,7 +13017,7 @@
         <v>0.43988941499547402</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>61</v>
       </c>
@@ -13581,7 +13091,7 @@
         <v>0.44805398715588401</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>396</v>
       </c>
@@ -13655,7 +13165,7 @@
         <v>0.45396498962495901</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>207</v>
       </c>
@@ -13729,7 +13239,7 @@
         <v>0.45396498962495901</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -13803,7 +13313,7 @@
         <v>0.45678503038624702</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>333</v>
       </c>
@@ -13877,7 +13387,7 @@
         <v>0.45870610618869601</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>54</v>
       </c>
@@ -13951,7 +13461,7 @@
         <v>0.463471851929388</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>140</v>
       </c>
@@ -14025,7 +13535,7 @@
         <v>0.47307723094163501</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>258</v>
       </c>
@@ -14099,7 +13609,7 @@
         <v>0.474173229316109</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>216</v>
       </c>
@@ -14173,7 +13683,7 @@
         <v>0.47791686421319002</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>284</v>
       </c>
@@ -14247,7 +13757,7 @@
         <v>0.47791686421319002</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>358</v>
       </c>
@@ -14321,7 +13831,7 @@
         <v>0.48283038501560799</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>240</v>
       </c>
@@ -14395,7 +13905,7 @@
         <v>0.48283038501560799</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>74</v>
       </c>
@@ -14469,7 +13979,7 @@
         <v>0.487670018287164</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>330</v>
       </c>
@@ -14543,7 +14053,7 @@
         <v>0.49146291153815302</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>94</v>
       </c>
@@ -14617,7 +14127,7 @@
         <v>0.49146291153815302</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>404</v>
       </c>
@@ -14691,7 +14201,7 @@
         <v>0.49258353908958302</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>105</v>
       </c>
@@ -14765,7 +14275,7 @@
         <v>0.49258353908958302</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>96</v>
       </c>
@@ -14839,7 +14349,7 @@
         <v>0.497521689068955</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>146</v>
       </c>
@@ -14913,7 +14423,7 @@
         <v>0.50747187655856496</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>388</v>
       </c>
@@ -14987,7 +14497,7 @@
         <v>0.50865407705238097</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>126</v>
       </c>
@@ -15061,7 +14571,7 @@
         <v>0.51721271604406105</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>195</v>
       </c>
@@ -15135,7 +14645,7 @@
         <v>0.51721271604406105</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>263</v>
       </c>
@@ -15209,7 +14719,7 @@
         <v>0.51752058075599305</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>159</v>
       </c>
@@ -15283,7 +14793,7 @@
         <v>0.51752058075599305</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>44</v>
       </c>
@@ -15357,7 +14867,7 @@
         <v>0.522581876620138</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -15431,7 +14941,7 @@
         <v>0.52766780166123795</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>392</v>
       </c>
@@ -15505,7 +15015,7 @@
         <v>0.53277835587929201</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>204</v>
       </c>
@@ -15579,7 +15089,7 @@
         <v>0.53425610649656197</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>108</v>
       </c>
@@ -15653,7 +15163,7 @@
         <v>0.54825779359518201</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>265</v>
       </c>
@@ -15727,7 +15237,7 @@
         <v>0.55870056462388196</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>307</v>
       </c>
@@ -15801,7 +15311,7 @@
         <v>0.55870056462388196</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>338</v>
       </c>
@@ -15875,7 +15385,7 @@
         <v>0.55963647334815103</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>205</v>
       </c>
@@ -15949,7 +15459,7 @@
         <v>0.56804733727810697</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>254</v>
       </c>
@@ -16023,7 +15533,7 @@
         <v>0.56804733727810697</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>169</v>
       </c>
@@ -16097,7 +15607,7 @@
         <v>0.57454943999408903</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>352</v>
       </c>
@@ -16171,7 +15681,7 @@
         <v>0.57643357203110701</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>65</v>
       </c>
@@ -16245,7 +15755,7 @@
         <v>0.57988165680473402</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>259</v>
       </c>
@@ -16319,7 +15829,7 @@
         <v>0.59061997795688703</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -16393,7 +15903,7 @@
         <v>0.59313215400624297</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>399</v>
       </c>
@@ -16467,7 +15977,7 @@
         <v>0.59313215400624297</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>298</v>
       </c>
@@ -16541,7 +16051,7 @@
         <v>0.60144450122838</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>283</v>
       </c>
@@ -16615,7 +16125,7 @@
         <v>0.60144450122838</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>18</v>
       </c>
@@ -16689,7 +16199,7 @@
         <v>0.60691217851227497</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>68</v>
       </c>
@@ -16763,7 +16273,7 @@
         <v>0.60973221927356303</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>80</v>
       </c>
@@ -16837,7 +16347,7 @@
         <v>0.61799530814179005</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -16911,7 +16421,7 @@
         <v>0.63444759834738196</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>206</v>
       </c>
@@ -16985,7 +16495,7 @@
         <v>0.63455842964367704</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>250</v>
       </c>
@@ -17059,7 +16569,7 @@
         <v>0.63455842964367704</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>294</v>
       </c>
@@ -17133,7 +16643,7 @@
         <v>0.64016156740082097</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -17207,7 +16717,7 @@
         <v>0.66705662863511295</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>142</v>
       </c>
@@ -17281,7 +16791,7 @@
         <v>0.67429760665972904</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -17355,7 +16865,7 @@
         <v>0.68321336871725002</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>123</v>
       </c>
@@ -17429,7 +16939,7 @@
         <v>0.691254794992888</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>70</v>
       </c>
@@ -17503,7 +17013,7 @@
         <v>0.69169812017806898</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>211</v>
       </c>
@@ -17577,7 +17087,7 @@
         <v>0.69754754970475796</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>92</v>
       </c>
@@ -17651,7 +17161,7 @@
         <v>0.70342160840840096</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>363</v>
       </c>
@@ -17725,7 +17235,7 @@
         <v>0.70726376001329905</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>273</v>
       </c>
@@ -17799,7 +17309,7 @@
         <v>0.70726376001329905</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>349</v>
       </c>
@@ -17873,7 +17383,7 @@
         <v>0.70932029628899895</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>138</v>
       </c>
@@ -17947,7 +17457,7 @@
         <v>0.71523129875807301</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>230</v>
       </c>
@@ -18021,7 +17531,7 @@
         <v>0.71524361334655095</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>365</v>
       </c>
@@ -18095,7 +17605,7 @@
         <v>0.72119155958105796</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>147</v>
       </c>
@@ -18169,7 +17679,7 @@
         <v>0.72317420832589296</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>163</v>
       </c>
@@ -18243,7 +17753,7 @@
         <v>0.72317420832589296</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>177</v>
       </c>
@@ -18317,7 +17827,7 @@
         <v>0.72716413499251897</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>84</v>
       </c>
@@ -18391,7 +17901,7 @@
         <v>0.73109248871675803</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>90</v>
       </c>
@@ -18465,7 +17975,7 @@
         <v>0.73109248871675803</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>183</v>
       </c>
@@ -18539,7 +18049,7 @@
         <v>0.73316133958093499</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>242</v>
       </c>
@@ -18613,7 +18123,7 @@
         <v>0.73918317334630501</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>132</v>
       </c>
@@ -18687,7 +18197,7 @@
         <v>0.74522963628862904</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>53</v>
       </c>
@@ -18761,7 +18271,7 @@
         <v>0.75130072840790796</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>210</v>
       </c>
@@ -18835,7 +18345,7 @@
         <v>0.75130072840790796</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>243</v>
       </c>
@@ -18909,7 +18419,7 @@
         <v>0.75469955482762596</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>377</v>
       </c>
@@ -18983,7 +18493,7 @@
         <v>0.75469955482762596</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>73</v>
       </c>
@@ -19057,7 +18567,7 @@
         <v>0.75739644970414199</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>401</v>
       </c>
@@ -19131,7 +18641,7 @@
         <v>0.75739644970414199</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -19205,7 +18715,7 @@
         <v>0.76251931851067301</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>342</v>
       </c>
@@ -19279,7 +18789,7 @@
         <v>0.76251931851067301</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>189</v>
       </c>
@@ -19353,7 +18863,7 @@
         <v>0.76351680017733004</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>371</v>
       </c>
@@ -19427,7 +18937,7 @@
         <v>0.76351680017733004</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>141</v>
       </c>
@@ -19501,7 +19011,7 @@
         <v>0.76966177982747297</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>339</v>
       </c>
@@ -19575,7 +19085,7 @@
         <v>0.77808495834590397</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>291</v>
       </c>
@@ -19649,7 +19159,7 @@
         <v>0.78202562665862096</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>60</v>
       </c>
@@ -19723,7 +19233,7 @@
         <v>0.78202562665862096</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>372</v>
       </c>
@@ -19797,7 +19307,7 @@
         <v>0.78824449383962703</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>50</v>
       </c>
@@ -19871,7 +19381,7 @@
         <v>0.78824449383962703</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -19945,7 +19455,7 @@
         <v>0.79448799019758698</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>416</v>
       </c>
@@ -20019,7 +19529,7 @@
         <v>0.80075611573250205</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>385</v>
       </c>
@@ -20093,7 +19603,7 @@
         <v>0.81656804733727895</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -20167,7 +19677,7 @@
         <v>0.82607490964170704</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -20241,7 +19751,7 @@
         <v>0.83178887869514595</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -20315,7 +19825,7 @@
         <v>0.83178887869514595</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>279</v>
       </c>
@@ -20389,7 +19899,7 @@
         <v>0.83888208165803602</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>314</v>
       </c>
@@ -20463,7 +19973,7 @@
         <v>0.83936235060864794</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>58</v>
       </c>
@@ -20537,7 +20047,7 @@
         <v>0.84532261143163201</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -20611,7 +20121,7 @@
         <v>0.84691119334519605</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>260</v>
       </c>
@@ -20685,7 +20195,7 @@
         <v>0.85443540690478903</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>415</v>
       </c>
@@ -20759,7 +20269,7 @@
         <v>0.86193499128742901</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>361</v>
       </c>
@@ -20833,7 +20343,7 @@
         <v>0.86940994649311298</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>181</v>
       </c>
@@ -20907,7 +20417,7 @@
         <v>0.87133102229556203</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>340</v>
       </c>
@@ -20981,7 +20491,7 @@
         <v>0.88448300278925396</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>222</v>
       </c>
@@ -21055,7 +20565,7 @@
         <v>0.89109593680153198</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>112</v>
       </c>
@@ -21129,7 +20639,7 @@
         <v>0.89109593680153198</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>376</v>
       </c>
@@ -21203,7 +20713,7 @@
         <v>0.89168703704843999</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>325</v>
       </c>
@@ -21277,7 +20787,7 @@
         <v>0.89773349999076402</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>121</v>
       </c>
@@ -21351,7 +20861,7 @@
         <v>0.90439569235695105</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>213</v>
       </c>
@@ -21425,7 +20935,7 @@
         <v>0.90641528486721701</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>287</v>
       </c>
@@ -21499,7 +21009,7 @@
         <v>0.92104501597817801</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>191</v>
       </c>
@@ -21573,7 +21083,7 @@
         <v>0.92453004451723697</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>215</v>
       </c>
@@ -21647,7 +21157,7 @@
         <v>0.92832293776822705</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>356</v>
       </c>
@@ -21721,7 +21231,7 @@
         <v>0.93807609184220098</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>75</v>
       </c>
@@ -21795,7 +21305,7 @@
         <v>0.94280489381746102</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>86</v>
       </c>
@@ -21869,7 +21379,7 @@
         <v>0.95000892807664705</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>373</v>
       </c>
@@ -21943,7 +21453,7 @@
         <v>0.951720655874982</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>201</v>
       </c>
@@ -22017,7 +21527,7 @@
         <v>0.95718833315887597</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -22091,7 +21601,7 @@
         <v>0.95857988165680497</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>134</v>
       </c>
@@ -22165,7 +21675,7 @@
         <v>0.95857988165680497</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>400</v>
       </c>
@@ -22239,7 +21749,7 @@
         <v>0.97147325579247501</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>174</v>
       </c>
@@ -22313,7 +21823,7 @@
         <v>0.97237222075131302</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>208</v>
       </c>
@@ -22387,7 +21897,7 @@
         <v>0.97857877334384202</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>148</v>
       </c>
@@ -22461,7 +21971,7 @@
         <v>0.979305334063999</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>276</v>
       </c>
@@ -22535,7 +22045,7 @@
         <v>0.98565966171825503</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>153</v>
       </c>
@@ -22609,7 +22119,7 @@
         <v>0.98626307655363898</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>199</v>
       </c>
@@ -22683,7 +22193,7 @@
         <v>0.98626307655363898</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>351</v>
       </c>
@@ -22757,7 +22267,7 @@
         <v>0.99271592091571303</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>56</v>
       </c>
@@ -22831,7 +22341,7 @@
         <v>0.99271592091571303</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>200</v>
       </c>
@@ -22905,7 +22415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>310</v>
       </c>
@@ -22979,7 +22489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>79</v>
       </c>
@@ -23053,7 +22563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>326</v>
       </c>
@@ -23127,7 +22637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>179</v>
       </c>
@@ -23201,7 +22711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>379</v>
       </c>
@@ -23275,7 +22785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>318</v>
       </c>
@@ -23349,7 +22859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>225</v>
       </c>
@@ -23423,7 +22933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>47</v>
       </c>
@@ -23497,7 +23007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>249</v>
       </c>
@@ -23571,7 +23081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>3</v>
       </c>
@@ -23645,7 +23155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>322</v>
       </c>
@@ -23719,7 +23229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>219</v>
       </c>
@@ -23793,7 +23303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>45</v>
       </c>
@@ -23867,7 +23377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>55</v>
       </c>
@@ -23941,7 +23451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>190</v>
       </c>
@@ -24015,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>173</v>
       </c>
@@ -24089,7 +23599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>93</v>
       </c>
@@ -24163,7 +23673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>300</v>
       </c>
@@ -24237,7 +23747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>306</v>
       </c>
@@ -24311,7 +23821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>152</v>
       </c>
@@ -24385,7 +23895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>308</v>
       </c>
@@ -24459,7 +23969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>118</v>
       </c>
@@ -24533,7 +24043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>375</v>
       </c>
@@ -24607,7 +24117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -24681,7 +24191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>309</v>
       </c>
@@ -24755,7 +24265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>374</v>
       </c>
@@ -24829,7 +24339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>151</v>
       </c>
@@ -24903,7 +24413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>274</v>
       </c>
@@ -24977,7 +24487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>316</v>
       </c>
@@ -25051,7 +24561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>262</v>
       </c>
@@ -25125,7 +24635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>327</v>
       </c>
@@ -25199,7 +24709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>51</v>
       </c>
@@ -25273,7 +24783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>104</v>
       </c>
@@ -25347,7 +24857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>168</v>
       </c>
@@ -25421,7 +24931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>341</v>
       </c>
@@ -25495,7 +25005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>49</v>
       </c>
@@ -25569,7 +25079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -25643,7 +25153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>337</v>
       </c>
@@ -25717,7 +25227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>359</v>
       </c>
@@ -25791,7 +25301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>304</v>
       </c>
@@ -25865,7 +25375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>184</v>
       </c>
@@ -25939,7 +25449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>235</v>
       </c>
@@ -26013,7 +25523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>391</v>
       </c>
@@ -26087,7 +25597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>405</v>
       </c>
@@ -26161,7 +25671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>278</v>
       </c>
@@ -26235,7 +25745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>192</v>
       </c>
@@ -26309,7 +25819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>297</v>
       </c>
@@ -26383,7 +25893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>406</v>
       </c>
@@ -26457,7 +25967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>217</v>
       </c>
@@ -26531,7 +26041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>170</v>
       </c>
@@ -26605,7 +26115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>98</v>
       </c>
@@ -26679,7 +26189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>275</v>
       </c>
@@ -26753,7 +26263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>328</v>
       </c>
@@ -26827,7 +26337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>155</v>
       </c>
@@ -26901,7 +26411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>114</v>
       </c>
@@ -26975,7 +26485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>78</v>
       </c>
@@ -27049,7 +26559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>299</v>
       </c>
@@ -27123,7 +26633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>237</v>
       </c>
@@ -27197,7 +26707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>354</v>
       </c>
@@ -27271,7 +26781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>220</v>
       </c>
@@ -27345,7 +26855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>16</v>
       </c>
@@ -27419,7 +26929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>162</v>
       </c>
@@ -27493,7 +27003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>115</v>
       </c>
@@ -27567,7 +27077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>128</v>
       </c>
@@ -27641,7 +27151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>360</v>
       </c>
@@ -27715,7 +27225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>345</v>
       </c>
@@ -27789,7 +27299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>346</v>
       </c>
@@ -27863,7 +27373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>336</v>
       </c>
@@ -27937,7 +27447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>231</v>
       </c>
@@ -28011,7 +27521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>311</v>
       </c>
@@ -28085,7 +27595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>122</v>
       </c>
@@ -28159,7 +27669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>393</v>
       </c>
@@ -28233,7 +27743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>232</v>
       </c>
@@ -28307,7 +27817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>281</v>
       </c>
@@ -28381,7 +27891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>221</v>
       </c>
@@ -28455,7 +27965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>413</v>
       </c>
@@ -28529,7 +28039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>293</v>
       </c>
@@ -28603,7 +28113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>272</v>
       </c>
@@ -28677,7 +28187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>244</v>
       </c>
@@ -28751,7 +28261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>137</v>
       </c>
@@ -28825,7 +28335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>382</v>
       </c>
@@ -28899,7 +28409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>197</v>
       </c>
@@ -28973,7 +28483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>368</v>
       </c>
@@ -29047,7 +28557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>224</v>
       </c>
@@ -29121,7 +28631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>417</v>
       </c>
@@ -29195,7 +28705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>236</v>
       </c>
@@ -29269,7 +28779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>218</v>
       </c>
@@ -29343,7 +28853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>209</v>
       </c>
@@ -29417,7 +28927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>402</v>
       </c>
@@ -29491,7 +29001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>347</v>
       </c>
@@ -29565,7 +29075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>130</v>
       </c>
@@ -29639,7 +29149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>144</v>
       </c>
@@ -29713,7 +29223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>175</v>
       </c>
@@ -29787,7 +29297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>229</v>
       </c>
@@ -29861,7 +29371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>315</v>
       </c>
@@ -29935,7 +29445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>100</v>
       </c>
@@ -30009,7 +29519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>85</v>
       </c>
@@ -30083,7 +29593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>165</v>
       </c>
@@ -30157,7 +29667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>198</v>
       </c>
@@ -30231,7 +29741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>366</v>
       </c>
@@ -30305,7 +29815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>268</v>
       </c>
@@ -30379,7 +29889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>253</v>
       </c>
@@ -30453,7 +29963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>357</v>
       </c>
@@ -30527,7 +30037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>367</v>
       </c>
@@ -30601,7 +30111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>384</v>
       </c>
@@ -30675,7 +30185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>414</v>
       </c>
@@ -30749,7 +30259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>369</v>
       </c>
@@ -30823,7 +30333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>180</v>
       </c>
@@ -30897,7 +30407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>301</v>
       </c>
@@ -30971,7 +30481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>331</v>
       </c>
@@ -31045,7 +30555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>89</v>
       </c>
@@ -31119,7 +30629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>348</v>
       </c>
@@ -31193,7 +30703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>419</v>
       </c>
@@ -31267,7 +30777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>303</v>
       </c>
@@ -31341,7 +30851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>355</v>
       </c>
@@ -31415,7 +30925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>139</v>
       </c>
@@ -31489,7 +30999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>41</v>
       </c>
@@ -31563,7 +31073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>241</v>
       </c>
@@ -31637,7 +31147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>248</v>
       </c>
@@ -31711,7 +31221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>261</v>
       </c>
@@ -31785,7 +31295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>397</v>
       </c>
@@ -31859,7 +31369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>176</v>
       </c>
@@ -31933,7 +31443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>335</v>
       </c>
@@ -32007,7 +31517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>129</v>
       </c>
@@ -32081,7 +31591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>403</v>
       </c>
@@ -32155,7 +31665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>329</v>
       </c>
@@ -32229,7 +31739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>390</v>
       </c>
@@ -32303,7 +31813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>285</v>
       </c>
@@ -32377,7 +31887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>386</v>
       </c>
@@ -32451,7 +31961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>257</v>
       </c>
@@ -32525,7 +32035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>353</v>
       </c>
@@ -32599,7 +32109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C404" t="s">
         <v>52</v>
       </c>
@@ -32667,7 +32177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C405" t="s">
         <v>211</v>
       </c>
@@ -32735,7 +32245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C406" t="s">
         <v>144</v>
       </c>
@@ -32803,7 +32313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C407" t="s">
         <v>170</v>
       </c>
@@ -32871,7 +32381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C408" t="s">
         <v>76</v>
       </c>
@@ -32933,7 +32443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C409" t="s">
         <v>392</v>
       </c>
@@ -32989,7 +32499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C410" t="s">
         <v>235</v>
       </c>
@@ -33033,7 +32543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C411" t="s">
         <v>269</v>
       </c>
@@ -33071,7 +32581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E412" t="s">
         <v>421</v>
       </c>
@@ -33098,7 +32608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E413" t="s">
         <v>379</v>
       </c>
@@ -33125,7 +32635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E414" t="s">
         <v>393</v>
       </c>
@@ -33146,7 +32656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E415" t="s">
         <v>352</v>
       </c>
@@ -33167,7 +32677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E416" t="s">
         <v>191</v>
       </c>
@@ -33188,7 +32698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="417" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G417" t="s">
         <v>170</v>
       </c>
@@ -33203,7 +32713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="418" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G418" t="s">
         <v>251</v>
       </c>
@@ -33212,7 +32722,7 @@
       </c>
       <c r="Q418"/>
     </row>
-    <row r="419" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="419" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G419" t="s">
         <v>308</v>
       </c>
@@ -33221,424 +32731,424 @@
       </c>
       <c r="Q419"/>
     </row>
-    <row r="420" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="420" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q420"/>
     </row>
-    <row r="421" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="421" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q421"/>
     </row>
-    <row r="422" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="422" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q422"/>
     </row>
-    <row r="423" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="423" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q423"/>
     </row>
-    <row r="424" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="424" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q424"/>
     </row>
-    <row r="425" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="425" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q425"/>
     </row>
-    <row r="426" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="426" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q426"/>
     </row>
-    <row r="427" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="427" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q427"/>
     </row>
-    <row r="428" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="428" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q428"/>
     </row>
-    <row r="429" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="429" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q429"/>
     </row>
-    <row r="430" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="430" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q430"/>
     </row>
-    <row r="431" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="431" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q431"/>
     </row>
-    <row r="432" spans="7:20" x14ac:dyDescent="0.35">
+    <row r="432" spans="7:20" x14ac:dyDescent="0.3">
       <c r="Q432"/>
     </row>
-    <row r="433" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="433" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q433"/>
     </row>
-    <row r="434" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="434" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q434"/>
     </row>
-    <row r="435" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="435" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q435"/>
     </row>
-    <row r="436" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="436" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q436"/>
     </row>
-    <row r="437" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="437" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q437"/>
     </row>
-    <row r="438" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="438" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q438"/>
     </row>
-    <row r="439" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="439" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q439"/>
     </row>
-    <row r="440" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="440" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q440"/>
     </row>
-    <row r="441" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="441" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q441"/>
     </row>
-    <row r="442" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="442" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q442"/>
     </row>
-    <row r="443" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="443" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q443"/>
     </row>
-    <row r="444" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="444" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q444"/>
     </row>
-    <row r="445" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="445" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q445"/>
     </row>
-    <row r="446" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="446" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q446"/>
     </row>
-    <row r="447" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="447" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q447"/>
     </row>
-    <row r="448" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="448" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q448"/>
     </row>
-    <row r="449" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="449" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q449"/>
     </row>
-    <row r="450" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="450" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q450"/>
     </row>
-    <row r="451" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="451" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q451"/>
     </row>
-    <row r="452" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="452" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q452"/>
     </row>
-    <row r="453" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="453" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q453"/>
     </row>
-    <row r="454" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="454" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q454"/>
     </row>
-    <row r="455" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="455" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q455"/>
     </row>
-    <row r="456" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="456" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q456"/>
     </row>
-    <row r="457" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="457" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q457"/>
     </row>
-    <row r="458" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="458" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q458"/>
     </row>
-    <row r="459" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="459" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q459"/>
     </row>
-    <row r="460" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="460" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q460"/>
     </row>
-    <row r="461" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="461" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q461"/>
     </row>
-    <row r="462" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="462" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q462"/>
     </row>
-    <row r="463" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="463" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q463"/>
     </row>
-    <row r="464" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="464" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q464"/>
     </row>
-    <row r="465" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="465" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q465"/>
     </row>
-    <row r="466" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="466" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q466"/>
     </row>
-    <row r="467" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="467" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q467"/>
     </row>
-    <row r="468" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="468" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q468"/>
     </row>
-    <row r="469" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="469" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q469"/>
     </row>
-    <row r="470" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="470" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q470"/>
     </row>
-    <row r="471" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="471" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q471"/>
     </row>
-    <row r="472" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="472" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q472"/>
     </row>
-    <row r="473" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="473" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q473"/>
     </row>
-    <row r="474" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="474" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q474"/>
     </row>
-    <row r="475" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="475" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q475"/>
     </row>
-    <row r="476" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="476" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q476"/>
     </row>
-    <row r="477" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="477" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q477"/>
     </row>
-    <row r="478" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="478" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q478"/>
     </row>
-    <row r="479" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="479" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q479"/>
     </row>
-    <row r="480" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="480" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q480"/>
     </row>
-    <row r="481" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="481" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q481"/>
     </row>
-    <row r="482" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="482" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q482"/>
     </row>
-    <row r="483" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="483" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q483"/>
     </row>
-    <row r="484" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="484" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q484"/>
     </row>
-    <row r="485" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="485" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q485"/>
     </row>
-    <row r="486" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="486" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q486"/>
     </row>
-    <row r="487" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="487" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q487"/>
     </row>
-    <row r="488" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="488" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q488"/>
     </row>
-    <row r="489" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="489" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q489"/>
     </row>
-    <row r="490" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="490" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q490"/>
     </row>
-    <row r="491" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="491" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q491"/>
     </row>
-    <row r="492" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="492" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q492"/>
     </row>
-    <row r="493" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="493" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q493"/>
     </row>
-    <row r="494" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="494" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q494"/>
     </row>
-    <row r="495" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="495" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q495"/>
     </row>
-    <row r="496" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="496" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q496"/>
     </row>
-    <row r="497" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="497" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q497"/>
     </row>
-    <row r="498" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="498" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q498"/>
     </row>
-    <row r="499" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="499" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q499"/>
     </row>
-    <row r="500" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="500" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q500"/>
     </row>
-    <row r="501" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="501" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q501"/>
     </row>
-    <row r="502" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="502" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q502"/>
     </row>
-    <row r="503" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="503" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q503"/>
     </row>
-    <row r="504" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="504" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q504"/>
     </row>
-    <row r="505" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="505" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q505"/>
     </row>
-    <row r="506" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="506" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q506"/>
     </row>
-    <row r="507" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="507" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q507"/>
     </row>
-    <row r="508" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="508" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q508"/>
     </row>
-    <row r="509" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="509" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q509"/>
     </row>
-    <row r="510" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="510" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q510"/>
     </row>
-    <row r="511" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="511" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q511"/>
     </row>
-    <row r="512" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="512" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q512"/>
     </row>
-    <row r="513" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="513" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q513"/>
     </row>
-    <row r="514" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="514" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q514"/>
     </row>
-    <row r="515" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="515" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q515"/>
     </row>
-    <row r="516" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="516" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q516"/>
     </row>
-    <row r="517" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="517" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q517"/>
     </row>
-    <row r="518" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="518" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q518"/>
     </row>
-    <row r="519" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="519" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q519"/>
     </row>
-    <row r="520" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="520" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q520"/>
     </row>
-    <row r="521" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="521" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q521"/>
     </row>
-    <row r="522" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="522" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q522"/>
     </row>
-    <row r="523" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="523" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q523"/>
     </row>
-    <row r="524" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="524" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q524"/>
     </row>
-    <row r="525" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="525" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q525"/>
     </row>
-    <row r="526" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="526" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q526"/>
     </row>
-    <row r="527" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="527" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q527"/>
     </row>
-    <row r="528" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="528" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q528"/>
     </row>
-    <row r="529" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="529" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q529"/>
     </row>
-    <row r="530" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="530" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q530"/>
     </row>
-    <row r="531" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="531" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q531"/>
     </row>
-    <row r="532" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="532" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q532"/>
     </row>
-    <row r="533" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="533" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q533"/>
     </row>
-    <row r="534" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="534" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q534"/>
     </row>
-    <row r="535" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="535" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q535"/>
     </row>
-    <row r="536" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="536" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q536"/>
     </row>
-    <row r="537" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="537" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q537"/>
     </row>
-    <row r="538" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="538" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q538"/>
     </row>
-    <row r="539" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="539" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q539"/>
     </row>
-    <row r="540" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="540" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q540"/>
     </row>
-    <row r="541" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="541" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q541"/>
     </row>
-    <row r="542" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="542" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q542"/>
     </row>
-    <row r="543" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="543" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q543"/>
     </row>
-    <row r="544" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="544" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q544"/>
     </row>
-    <row r="545" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="545" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q545"/>
     </row>
-    <row r="546" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="546" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q546"/>
     </row>
-    <row r="547" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="547" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q547"/>
     </row>
-    <row r="548" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="548" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q548"/>
     </row>
-    <row r="549" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="549" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q549"/>
     </row>
-    <row r="550" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="550" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q550"/>
     </row>
-    <row r="551" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="551" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q551"/>
     </row>
-    <row r="552" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="552" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q552"/>
     </row>
-    <row r="553" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="553" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q553"/>
     </row>
-    <row r="554" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="554" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q554"/>
     </row>
-    <row r="555" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="555" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q555"/>
     </row>
-    <row r="556" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="556" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q556"/>
     </row>
-    <row r="557" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="557" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q557"/>
     </row>
-    <row r="558" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="558" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q558"/>
     </row>
-    <row r="559" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="559" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q559"/>
     </row>
   </sheetData>
@@ -33660,31 +33170,31 @@
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:A27 M6:M20">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A27">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C21 O6:O22">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C21">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E20 Q6:Q24">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G23 S6:S26">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I20 U6:U24">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O22">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:W25 K6:K17">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
